--- a/Document/Travel Management Project Sheet (1).xlsx
+++ b/Document/Travel Management Project Sheet (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akanshab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Employee Travel Booking App\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76388D71-B450-4C6B-8B87-4C8CD3E51A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6DF648-99AB-472B-AFD6-E807A3796B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0D2A1928-BC5E-4575-9558-746FB5A5AC33}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0D2A1928-BC5E-4575-9558-746FB5A5AC33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
   <si>
     <t>Travel Management Project</t>
   </si>
@@ -193,16 +193,85 @@
   </si>
   <si>
     <t>22/10/2023</t>
+  </si>
+  <si>
+    <t>Correction / Feedback Enhancement</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>Employee Management Feedback</t>
+  </si>
+  <si>
+    <t>1.4.1.1</t>
+  </si>
+  <si>
+    <t>No repetetion of Employee Id</t>
+  </si>
+  <si>
+    <t>To select employee for delete/edit only form list</t>
+  </si>
+  <si>
+    <t>1.4.1.2</t>
+  </si>
+  <si>
+    <t>1.4.2</t>
+  </si>
+  <si>
+    <t>Travel Request Management Feedback</t>
+  </si>
+  <si>
+    <t>1.4.2.1</t>
+  </si>
+  <si>
+    <t>1.4.2.2</t>
+  </si>
+  <si>
+    <t>To approve requests only show pending requests</t>
+  </si>
+  <si>
+    <t>1.4.2.3</t>
+  </si>
+  <si>
+    <t>To confirm requests only show approved requests</t>
+  </si>
+  <si>
+    <t>If requests are approved and confirmed close request</t>
+  </si>
+  <si>
+    <t>If requests are approved and not confirmed close request</t>
+  </si>
+  <si>
+    <t>To not approve request close requests</t>
+  </si>
+  <si>
+    <t>1.4.2.4</t>
+  </si>
+  <si>
+    <t>1.4.2.5</t>
+  </si>
+  <si>
+    <t>1.4.2.6</t>
+  </si>
+  <si>
+    <t>1.4.2.7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -545,22 +614,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CAB9FF-F655-4135-B7C6-B82B6EA027D9}">
-  <dimension ref="A2:J23"/>
+  <dimension ref="A2:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.6328125" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" customWidth="1"/>
-    <col min="6" max="6" width="17.6328125" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" customWidth="1"/>
-    <col min="10" max="10" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -580,7 +649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.1000000000000001</v>
       </c>
@@ -600,7 +669,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -620,7 +689,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -640,7 +709,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -660,7 +729,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -680,7 +749,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.2</v>
       </c>
@@ -700,7 +769,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -720,7 +789,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -740,7 +809,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -760,7 +829,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -780,7 +849,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -800,7 +869,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -820,7 +889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -840,7 +909,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -860,7 +929,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -880,7 +949,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -900,7 +969,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -920,7 +989,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1.3</v>
       </c>
@@ -940,7 +1009,116 @@
         <v>44968</v>
       </c>
     </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1.4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45231</v>
+      </c>
+      <c r="F25" s="1">
+        <v>45235</v>
+      </c>
+      <c r="H25" s="1">
+        <v>45231</v>
+      </c>
+      <c r="J25" s="1">
+        <v>45235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
